--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Xuất Kho 2023/Thang10/XKSX_LK_1000E-4G_261023.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Xuất Kho 2023/Thang10/XKSX_LK_1000E-4G_261023.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="175">
   <si>
     <t>STT</t>
   </si>
@@ -550,9 +550,6 @@
   </si>
   <si>
     <t>VT_DIODE_ SMCJ33A</t>
-  </si>
-  <si>
-    <t>Số dư chuyển qua lô 5-2023</t>
   </si>
   <si>
     <t>Xuất kho linh kiện gia công 1000 thiết bị TG102E-4G. LOT4-2023</t>
@@ -1469,6 +1466,78 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1496,67 +1565,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1568,7 +1577,49 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1589,46 +1640,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1694,15 +1712,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1742,8 +1751,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1766,28 +1799,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1811,29 +1844,14 @@
     <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1848,27 +1866,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1911,7 +1908,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1963,7 +1960,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2012,7 +2009,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2064,7 +2061,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2113,7 +2110,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD526011-714C-4DBD-B6A8-673BE0B9A83D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD526011-714C-4DBD-B6A8-673BE0B9A83D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2165,7 +2162,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7BDEEE3-9980-4D12-9AEC-98030418D8FC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BDEEE3-9980-4D12-9AEC-98030418D8FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2263,7 +2260,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2312,7 +2309,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2361,7 +2358,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2405,7 +2402,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2479,7 +2476,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2820,57 +2817,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="96" t="s">
+      <c r="A2" s="119"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="102" t="s">
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="126" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="102"/>
+      <c r="M2" s="126"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="102" t="s">
+      <c r="A3" s="119"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="102"/>
+      <c r="M3" s="126"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="102" t="s">
+      <c r="A4" s="119"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="102"/>
+      <c r="M4" s="126"/>
     </row>
     <row r="5" spans="1:13" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
@@ -2897,29 +2894,29 @@
       <c r="A8" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
       <c r="E8" s="70" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="104" t="s">
+      <c r="G8" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104" t="s">
+      <c r="H8" s="110"/>
+      <c r="I8" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104" t="s">
+      <c r="J8" s="110"/>
+      <c r="K8" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="104"/>
+      <c r="L8" s="110"/>
       <c r="M8" s="70" t="s">
         <v>4</v>
       </c>
@@ -2928,86 +2925,86 @@
       <c r="A9" s="71">
         <v>1</v>
       </c>
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="114"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="118"/>
       <c r="E9" s="69" t="s">
         <v>93</v>
       </c>
       <c r="F9" s="69">
         <v>985</v>
       </c>
-      <c r="G9" s="110"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="109" t="s">
+      <c r="G9" s="114"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="106" t="s">
         <v>106</v>
       </c>
-      <c r="L9" s="109"/>
+      <c r="L9" s="106"/>
       <c r="M9" s="70"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="71">
         <v>2</v>
       </c>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="114"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="118"/>
       <c r="E10" s="69" t="s">
         <v>93</v>
       </c>
       <c r="F10" s="69">
         <v>985</v>
       </c>
-      <c r="G10" s="110"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="109" t="s">
+      <c r="G10" s="114"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="106" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="109"/>
+      <c r="L10" s="106"/>
       <c r="M10" s="70"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="71">
         <v>3</v>
       </c>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="107"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="113"/>
       <c r="E11" s="69" t="s">
         <v>93</v>
       </c>
       <c r="F11" s="69">
         <v>985</v>
       </c>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="109" t="s">
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="106" t="s">
         <v>106</v>
       </c>
-      <c r="L11" s="109"/>
+      <c r="L11" s="106"/>
       <c r="M11" s="68"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="71">
         <v>4</v>
       </c>
-      <c r="B12" s="115" t="s">
+      <c r="B12" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
       <c r="E12" s="69" t="s">
         <v>93</v>
       </c>
@@ -3015,58 +3012,58 @@
         <f>985*2</f>
         <v>1970</v>
       </c>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="109" t="s">
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="106" t="s">
         <v>106</v>
       </c>
-      <c r="L12" s="109"/>
+      <c r="L12" s="106"/>
       <c r="M12" s="68"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="116" t="s">
+      <c r="A14" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="116" t="s">
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="116" t="s">
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="118"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="109"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="119" t="s">
+      <c r="A15" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="119" t="s">
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="119" t="s">
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="121"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="100"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
@@ -3129,25 +3126,25 @@
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="122" t="s">
+      <c r="A20" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="123"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="122" t="s">
+      <c r="B20" s="102"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="122" t="s">
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="124"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="103"/>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3160,19 +3157,12 @@
     <row r="29" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:K3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:M4"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
@@ -3189,12 +3179,19 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:K3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.6692913385826772" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
@@ -3228,51 +3225,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="96" t="s">
+      <c r="A2" s="119"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="102" t="s">
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="126" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="102"/>
+      <c r="K2" s="126"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="102" t="s">
+      <c r="A3" s="119"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="102"/>
+      <c r="K3" s="126"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="102" t="s">
+      <c r="A4" s="119"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="102"/>
+      <c r="K4" s="126"/>
     </row>
     <row r="5" spans="1:11" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
@@ -3299,23 +3296,23 @@
       <c r="A8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
       <c r="E8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="110" t="s">
+      <c r="F8" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="111"/>
-      <c r="H8" s="110" t="s">
+      <c r="G8" s="115"/>
+      <c r="H8" s="114" t="s">
         <v>86</v>
       </c>
       <c r="I8" s="128"/>
-      <c r="J8" s="111"/>
+      <c r="J8" s="115"/>
       <c r="K8" s="24" t="s">
         <v>4</v>
       </c>
@@ -3324,46 +3321,46 @@
       <c r="A9" s="73">
         <v>1</v>
       </c>
-      <c r="B9" s="125" t="s">
+      <c r="B9" s="129" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="126"/>
-      <c r="D9" s="127"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="131"/>
       <c r="E9" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="125">
+      <c r="F9" s="129">
         <v>6</v>
       </c>
-      <c r="G9" s="127"/>
-      <c r="H9" s="125" t="s">
+      <c r="G9" s="131"/>
+      <c r="H9" s="129" t="s">
         <v>113</v>
       </c>
-      <c r="I9" s="126"/>
-      <c r="J9" s="127"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="131"/>
       <c r="K9" s="73"/>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="73">
         <v>2</v>
       </c>
-      <c r="B10" s="125" t="s">
+      <c r="B10" s="129" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="127"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="131"/>
       <c r="E10" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="125">
+      <c r="F10" s="129">
         <v>4</v>
       </c>
-      <c r="G10" s="127"/>
-      <c r="H10" s="125" t="s">
+      <c r="G10" s="131"/>
+      <c r="H10" s="129" t="s">
         <v>113</v>
       </c>
-      <c r="I10" s="126"/>
-      <c r="J10" s="127"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="131"/>
       <c r="K10" s="73" t="s">
         <v>117</v>
       </c>
@@ -3372,65 +3369,65 @@
       <c r="A11" s="73">
         <v>3</v>
       </c>
-      <c r="B11" s="125" t="s">
+      <c r="B11" s="129" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="127"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="131"/>
       <c r="E11" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="125">
+      <c r="F11" s="129">
         <v>2</v>
       </c>
-      <c r="G11" s="127"/>
-      <c r="H11" s="125" t="s">
+      <c r="G11" s="131"/>
+      <c r="H11" s="129" t="s">
         <v>114</v>
       </c>
-      <c r="I11" s="126"/>
-      <c r="J11" s="127"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="131"/>
       <c r="K11" s="73" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="116" t="s">
+      <c r="A13" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="116" t="s">
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="118"/>
-      <c r="H13" s="116" t="s">
+      <c r="G13" s="109"/>
+      <c r="H13" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="118"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="109"/>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="119" t="s">
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="121"/>
-      <c r="H14" s="119" t="s">
+      <c r="G14" s="100"/>
+      <c r="H14" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="121"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="100"/>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
@@ -3485,23 +3482,23 @@
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="122" t="s">
+      <c r="A19" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="123"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="122" t="s">
+      <c r="B19" s="102"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="124"/>
-      <c r="H19" s="122" t="s">
+      <c r="G19" s="103"/>
+      <c r="H19" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="123"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="124"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="103"/>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3514,6 +3511,24 @@
     <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D2:I3"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="A19:E19"/>
@@ -3523,24 +3538,6 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:K14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D2:I3"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.6692913385826772" bottom="0" header="0" footer="0"/>
@@ -3555,7 +3552,7 @@
   <dimension ref="A2:S74"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3573,42 +3570,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="141"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="135" t="s">
+      <c r="A2" s="138"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="132" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="143" t="s">
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="140" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="143"/>
+      <c r="H2" s="140"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="141"/>
-      <c r="B3" s="141"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="143" t="s">
+      <c r="A3" s="138"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="143"/>
+      <c r="H3" s="140"/>
     </row>
     <row r="4" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="141"/>
-      <c r="B4" s="141"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="143" t="s">
+      <c r="A4" s="138"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="143"/>
+      <c r="H4" s="140"/>
     </row>
     <row r="5" spans="1:19" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="85" t="s">
@@ -3632,11 +3629,11 @@
         <v>124</v>
       </c>
       <c r="E6" s="86"/>
-      <c r="F6" s="144" t="s">
+      <c r="F6" s="141" t="s">
         <v>171</v>
       </c>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
     </row>
     <row r="7" spans="1:19" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="85" t="s">
@@ -3667,7 +3664,7 @@
         <v>142</v>
       </c>
       <c r="F8" s="87" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G8" s="87" t="s">
         <v>107</v>
@@ -3680,7 +3677,7 @@
       <c r="A9" s="89">
         <v>1</v>
       </c>
-      <c r="B9" s="225" t="s">
+      <c r="B9" s="95" t="s">
         <v>146</v>
       </c>
       <c r="C9" s="90" t="s">
@@ -3696,8 +3693,8 @@
       <c r="F9" s="92">
         <v>10000</v>
       </c>
-      <c r="G9" s="147" t="s">
-        <v>174</v>
+      <c r="G9" s="144" t="s">
+        <v>173</v>
       </c>
       <c r="H9" s="89"/>
     </row>
@@ -3705,7 +3702,7 @@
       <c r="A10" s="89">
         <v>2</v>
       </c>
-      <c r="B10" s="225" t="s">
+      <c r="B10" s="95" t="s">
         <v>147</v>
       </c>
       <c r="C10" s="90" t="s">
@@ -3716,21 +3713,19 @@
       </c>
       <c r="E10" s="94">
         <f t="shared" ref="E10:E50" si="0">F10-D10</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="92">
-        <v>4000</v>
-      </c>
-      <c r="G10" s="228"/>
-      <c r="H10" s="89" t="s">
-        <v>173</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="G10" s="145"/>
+      <c r="H10" s="89"/>
     </row>
     <row r="11" spans="1:19" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="89">
         <v>3</v>
       </c>
-      <c r="B11" s="225" t="s">
+      <c r="B11" s="95" t="s">
         <v>148</v>
       </c>
       <c r="C11" s="90" t="s">
@@ -3746,7 +3741,7 @@
       <c r="F11" s="92">
         <v>4000</v>
       </c>
-      <c r="G11" s="148"/>
+      <c r="G11" s="146"/>
       <c r="H11" s="87"/>
       <c r="S11" s="2" t="s">
         <v>141</v>
@@ -3756,7 +3751,7 @@
       <c r="A12" s="89">
         <v>4</v>
       </c>
-      <c r="B12" s="225" t="s">
+      <c r="B12" s="95" t="s">
         <v>125</v>
       </c>
       <c r="C12" s="90" t="s">
@@ -3779,7 +3774,7 @@
       <c r="A13" s="89">
         <v>5</v>
       </c>
-      <c r="B13" s="225" t="s">
+      <c r="B13" s="95" t="s">
         <v>149</v>
       </c>
       <c r="C13" s="90" t="s">
@@ -3802,7 +3797,7 @@
       <c r="A14" s="89">
         <v>6</v>
       </c>
-      <c r="B14" s="225" t="s">
+      <c r="B14" s="95" t="s">
         <v>126</v>
       </c>
       <c r="C14" s="90" t="s">
@@ -3819,15 +3814,13 @@
         <v>1035</v>
       </c>
       <c r="G14" s="93"/>
-      <c r="H14" s="89" t="s">
-        <v>173</v>
-      </c>
+      <c r="H14" s="89"/>
     </row>
     <row r="15" spans="1:19" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="89">
         <v>7</v>
       </c>
-      <c r="B15" s="225" t="s">
+      <c r="B15" s="95" t="s">
         <v>150</v>
       </c>
       <c r="C15" s="90" t="s">
@@ -3850,7 +3843,7 @@
       <c r="A16" s="89">
         <v>8</v>
       </c>
-      <c r="B16" s="225" t="s">
+      <c r="B16" s="95" t="s">
         <v>128</v>
       </c>
       <c r="C16" s="90" t="s">
@@ -3873,7 +3866,7 @@
       <c r="A17" s="89">
         <v>9</v>
       </c>
-      <c r="B17" s="225" t="s">
+      <c r="B17" s="95" t="s">
         <v>172</v>
       </c>
       <c r="C17" s="90" t="s">
@@ -3890,15 +3883,13 @@
         <v>1000</v>
       </c>
       <c r="G17" s="93"/>
-      <c r="H17" s="89" t="s">
-        <v>173</v>
-      </c>
+      <c r="H17" s="89"/>
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="89">
         <v>10</v>
       </c>
-      <c r="B18" s="225" t="s">
+      <c r="B18" s="95" t="s">
         <v>151</v>
       </c>
       <c r="C18" s="90" t="s">
@@ -3921,7 +3912,7 @@
       <c r="A19" s="89">
         <v>11</v>
       </c>
-      <c r="B19" s="225" t="s">
+      <c r="B19" s="95" t="s">
         <v>127</v>
       </c>
       <c r="C19" s="90" t="s">
@@ -3932,21 +3923,19 @@
       </c>
       <c r="E19" s="94">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="92">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G19" s="93"/>
-      <c r="H19" s="89" t="s">
-        <v>173</v>
-      </c>
+      <c r="H19" s="89"/>
     </row>
     <row r="20" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="89">
         <v>12</v>
       </c>
-      <c r="B20" s="225" t="s">
+      <c r="B20" s="95" t="s">
         <v>130</v>
       </c>
       <c r="C20" s="90" t="s">
@@ -3969,7 +3958,7 @@
       <c r="A21" s="89">
         <v>13</v>
       </c>
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="95" t="s">
         <v>133</v>
       </c>
       <c r="C21" s="90" t="s">
@@ -3992,7 +3981,7 @@
       <c r="A22" s="89">
         <v>14</v>
       </c>
-      <c r="B22" s="225" t="s">
+      <c r="B22" s="95" t="s">
         <v>152</v>
       </c>
       <c r="C22" s="90" t="s">
@@ -4015,7 +4004,7 @@
       <c r="A23" s="89">
         <v>15</v>
       </c>
-      <c r="B23" s="225" t="s">
+      <c r="B23" s="95" t="s">
         <v>153</v>
       </c>
       <c r="C23" s="90" t="s">
@@ -4038,7 +4027,7 @@
       <c r="A24" s="89">
         <v>16</v>
       </c>
-      <c r="B24" s="225" t="s">
+      <c r="B24" s="95" t="s">
         <v>131</v>
       </c>
       <c r="C24" s="90" t="s">
@@ -4061,7 +4050,7 @@
       <c r="A25" s="89">
         <v>17</v>
       </c>
-      <c r="B25" s="225" t="s">
+      <c r="B25" s="95" t="s">
         <v>132</v>
       </c>
       <c r="C25" s="90" t="s">
@@ -4084,7 +4073,7 @@
       <c r="A26" s="89">
         <v>18</v>
       </c>
-      <c r="B26" s="225" t="s">
+      <c r="B26" s="95" t="s">
         <v>129</v>
       </c>
       <c r="C26" s="90" t="s">
@@ -4107,7 +4096,7 @@
       <c r="A27" s="89">
         <v>19</v>
       </c>
-      <c r="B27" s="225" t="s">
+      <c r="B27" s="95" t="s">
         <v>154</v>
       </c>
       <c r="C27" s="90" t="s">
@@ -4118,21 +4107,19 @@
       </c>
       <c r="E27" s="94">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="F27" s="92">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G27" s="93"/>
-      <c r="H27" s="89" t="s">
-        <v>173</v>
-      </c>
+      <c r="H27" s="89"/>
     </row>
     <row r="28" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="89">
         <v>20</v>
       </c>
-      <c r="B28" s="225" t="s">
+      <c r="B28" s="95" t="s">
         <v>134</v>
       </c>
       <c r="C28" s="90" t="s">
@@ -4143,21 +4130,19 @@
       </c>
       <c r="E28" s="94">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F28" s="92">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="G28" s="93"/>
-      <c r="H28" s="89" t="s">
-        <v>173</v>
-      </c>
+      <c r="H28" s="89"/>
     </row>
     <row r="29" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="89">
         <v>21</v>
       </c>
-      <c r="B29" s="225" t="s">
+      <c r="B29" s="95" t="s">
         <v>155</v>
       </c>
       <c r="C29" s="90" t="s">
@@ -4168,21 +4153,19 @@
       </c>
       <c r="E29" s="94">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F29" s="92">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G29" s="93"/>
-      <c r="H29" s="89" t="s">
-        <v>173</v>
-      </c>
+      <c r="H29" s="89"/>
     </row>
     <row r="30" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="89">
         <v>22</v>
       </c>
-      <c r="B30" s="225" t="s">
+      <c r="B30" s="95" t="s">
         <v>135</v>
       </c>
       <c r="C30" s="90" t="s">
@@ -4193,21 +4176,19 @@
       </c>
       <c r="E30" s="94">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="F30" s="92">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="G30" s="93"/>
-      <c r="H30" s="89" t="s">
-        <v>173</v>
-      </c>
+      <c r="H30" s="89"/>
     </row>
     <row r="31" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="89">
         <v>23</v>
       </c>
-      <c r="B31" s="225" t="s">
+      <c r="B31" s="95" t="s">
         <v>156</v>
       </c>
       <c r="C31" s="90" t="s">
@@ -4230,7 +4211,7 @@
       <c r="A32" s="89">
         <v>24</v>
       </c>
-      <c r="B32" s="225" t="s">
+      <c r="B32" s="95" t="s">
         <v>157</v>
       </c>
       <c r="C32" s="90" t="s">
@@ -4253,7 +4234,7 @@
       <c r="A33" s="89">
         <v>25</v>
       </c>
-      <c r="B33" s="225" t="s">
+      <c r="B33" s="95" t="s">
         <v>136</v>
       </c>
       <c r="C33" s="90" t="s">
@@ -4276,7 +4257,7 @@
       <c r="A34" s="89">
         <v>26</v>
       </c>
-      <c r="B34" s="225" t="s">
+      <c r="B34" s="95" t="s">
         <v>158</v>
       </c>
       <c r="C34" s="90" t="s">
@@ -4287,21 +4268,19 @@
       </c>
       <c r="E34" s="94">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F34" s="92">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G34" s="93"/>
-      <c r="H34" s="89" t="s">
-        <v>173</v>
-      </c>
+      <c r="H34" s="89"/>
     </row>
     <row r="35" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="89">
         <v>27</v>
       </c>
-      <c r="B35" s="225" t="s">
+      <c r="B35" s="95" t="s">
         <v>159</v>
       </c>
       <c r="C35" s="90" t="s">
@@ -4324,7 +4303,7 @@
       <c r="A36" s="89">
         <v>28</v>
       </c>
-      <c r="B36" s="225" t="s">
+      <c r="B36" s="95" t="s">
         <v>137</v>
       </c>
       <c r="C36" s="90" t="s">
@@ -4335,21 +4314,19 @@
       </c>
       <c r="E36" s="94">
         <f t="shared" si="0"/>
-        <v>4022</v>
+        <v>0</v>
       </c>
       <c r="F36" s="92">
-        <v>6022</v>
+        <v>2000</v>
       </c>
       <c r="G36" s="93"/>
-      <c r="H36" s="89" t="s">
-        <v>173</v>
-      </c>
+      <c r="H36" s="89"/>
     </row>
     <row r="37" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="89">
         <v>29</v>
       </c>
-      <c r="B37" s="225" t="s">
+      <c r="B37" s="95" t="s">
         <v>138</v>
       </c>
       <c r="C37" s="90" t="s">
@@ -4360,21 +4337,19 @@
       </c>
       <c r="E37" s="94">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F37" s="92">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G37" s="93"/>
-      <c r="H37" s="89" t="s">
-        <v>173</v>
-      </c>
+      <c r="H37" s="89"/>
     </row>
     <row r="38" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="89">
         <v>30</v>
       </c>
-      <c r="B38" s="225" t="s">
+      <c r="B38" s="95" t="s">
         <v>160</v>
       </c>
       <c r="C38" s="90" t="s">
@@ -4397,7 +4372,7 @@
       <c r="A39" s="89">
         <v>31</v>
       </c>
-      <c r="B39" s="225" t="s">
+      <c r="B39" s="95" t="s">
         <v>161</v>
       </c>
       <c r="C39" s="90" t="s">
@@ -4420,7 +4395,7 @@
       <c r="A40" s="89">
         <v>32</v>
       </c>
-      <c r="B40" s="225" t="s">
+      <c r="B40" s="95" t="s">
         <v>162</v>
       </c>
       <c r="C40" s="90" t="s">
@@ -4443,7 +4418,7 @@
       <c r="A41" s="89">
         <v>33</v>
       </c>
-      <c r="B41" s="225" t="s">
+      <c r="B41" s="95" t="s">
         <v>140</v>
       </c>
       <c r="C41" s="90" t="s">
@@ -4454,21 +4429,19 @@
       </c>
       <c r="E41" s="94">
         <f t="shared" si="0"/>
-        <v>506</v>
+        <v>0</v>
       </c>
       <c r="F41" s="92">
-        <v>1506</v>
+        <v>1000</v>
       </c>
       <c r="G41" s="93"/>
-      <c r="H41" s="89" t="s">
-        <v>173</v>
-      </c>
+      <c r="H41" s="89"/>
     </row>
     <row r="42" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="89">
         <v>34</v>
       </c>
-      <c r="B42" s="225" t="s">
+      <c r="B42" s="95" t="s">
         <v>139</v>
       </c>
       <c r="C42" s="90" t="s">
@@ -4479,21 +4452,19 @@
       </c>
       <c r="E42" s="94">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="F42" s="92">
-        <v>3100</v>
+        <v>1000</v>
       </c>
       <c r="G42" s="93"/>
-      <c r="H42" s="89" t="s">
-        <v>173</v>
-      </c>
+      <c r="H42" s="89"/>
     </row>
     <row r="43" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="89">
         <v>35</v>
       </c>
-      <c r="B43" s="225" t="s">
+      <c r="B43" s="95" t="s">
         <v>163</v>
       </c>
       <c r="C43" s="90" t="s">
@@ -4504,21 +4475,19 @@
       </c>
       <c r="E43" s="94">
         <f t="shared" si="0"/>
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="F43" s="92">
-        <v>1744</v>
+        <v>1000</v>
       </c>
       <c r="G43" s="93"/>
-      <c r="H43" s="89" t="s">
-        <v>173</v>
-      </c>
+      <c r="H43" s="89"/>
     </row>
     <row r="44" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="89">
         <v>36</v>
       </c>
-      <c r="B44" s="226" t="s">
+      <c r="B44" s="96" t="s">
         <v>170</v>
       </c>
       <c r="C44" s="90" t="s">
@@ -4541,7 +4510,7 @@
       <c r="A45" s="89">
         <v>37</v>
       </c>
-      <c r="B45" s="225" t="s">
+      <c r="B45" s="95" t="s">
         <v>164</v>
       </c>
       <c r="C45" s="90" t="s">
@@ -4564,7 +4533,7 @@
       <c r="A46" s="89">
         <v>38</v>
       </c>
-      <c r="B46" s="225" t="s">
+      <c r="B46" s="95" t="s">
         <v>165</v>
       </c>
       <c r="C46" s="90" t="s">
@@ -4587,7 +4556,7 @@
       <c r="A47" s="89">
         <v>39</v>
       </c>
-      <c r="B47" s="227" t="s">
+      <c r="B47" s="97" t="s">
         <v>166</v>
       </c>
       <c r="C47" s="90" t="s">
@@ -4677,12 +4646,12 @@
     </row>
     <row r="51" spans="1:8" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="83"/>
-      <c r="B51" s="145"/>
-      <c r="C51" s="145"/>
-      <c r="D51" s="146"/>
-      <c r="E51" s="146"/>
-      <c r="F51" s="145"/>
-      <c r="G51" s="145"/>
+      <c r="B51" s="142"/>
+      <c r="C51" s="142"/>
+      <c r="D51" s="143"/>
+      <c r="E51" s="143"/>
+      <c r="F51" s="142"/>
+      <c r="G51" s="142"/>
       <c r="H51" s="74"/>
     </row>
     <row r="52" spans="1:8" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4697,8 +4666,8 @@
     </row>
     <row r="53" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A53" s="60"/>
-      <c r="B53" s="142"/>
-      <c r="C53" s="142"/>
+      <c r="B53" s="139"/>
+      <c r="C53" s="139"/>
       <c r="D53" s="60"/>
       <c r="E53" s="60"/>
       <c r="F53" s="60"/>
@@ -4706,37 +4675,37 @@
       <c r="H53" s="60"/>
     </row>
     <row r="54" spans="1:8" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="131" t="s">
+      <c r="A54" s="149" t="s">
         <v>79</v>
       </c>
-      <c r="B54" s="131"/>
-      <c r="C54" s="131" t="s">
+      <c r="B54" s="149"/>
+      <c r="C54" s="149" t="s">
         <v>145</v>
       </c>
-      <c r="D54" s="131"/>
+      <c r="D54" s="149"/>
       <c r="E54" s="81"/>
-      <c r="F54" s="133" t="s">
+      <c r="F54" s="151" t="s">
         <v>78</v>
       </c>
-      <c r="G54" s="133"/>
+      <c r="G54" s="151"/>
       <c r="H54" s="78" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="132" t="s">
+      <c r="A55" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="132"/>
-      <c r="C55" s="132" t="s">
+      <c r="B55" s="150"/>
+      <c r="C55" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="132"/>
+      <c r="D55" s="150"/>
       <c r="E55" s="82"/>
-      <c r="F55" s="132" t="s">
+      <c r="F55" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="G55" s="132"/>
+      <c r="G55" s="150"/>
       <c r="H55" s="77" t="s">
         <v>6</v>
       </c>
@@ -4776,8 +4745,8 @@
       <c r="D59" s="72"/>
       <c r="E59" s="82"/>
       <c r="F59" s="63"/>
-      <c r="G59" s="132"/>
-      <c r="H59" s="132"/>
+      <c r="G59" s="150"/>
+      <c r="H59" s="150"/>
     </row>
     <row r="60" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A60" s="61"/>
@@ -4790,41 +4759,41 @@
       <c r="H60" s="61"/>
     </row>
     <row r="61" spans="1:8" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="132" t="s">
+      <c r="A61" s="150" t="s">
         <v>88</v>
       </c>
-      <c r="B61" s="132"/>
-      <c r="C61" s="132" t="s">
+      <c r="B61" s="150"/>
+      <c r="C61" s="150" t="s">
         <v>144</v>
       </c>
-      <c r="D61" s="132"/>
+      <c r="D61" s="150"/>
       <c r="E61" s="82"/>
-      <c r="F61" s="134" t="s">
+      <c r="F61" s="152" t="s">
         <v>89</v>
       </c>
-      <c r="G61" s="134"/>
+      <c r="G61" s="152"/>
       <c r="H61" s="77" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F63" s="130"/>
-      <c r="G63" s="130"/>
-      <c r="H63" s="130"/>
+      <c r="F63" s="148"/>
+      <c r="G63" s="148"/>
+      <c r="H63" s="148"/>
     </row>
     <row r="64" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="65" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="66" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="3:8" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="C67" s="129" t="s">
+      <c r="C67" s="147" t="s">
         <v>109</v>
       </c>
-      <c r="D67" s="129"/>
-      <c r="E67" s="129"/>
-      <c r="F67" s="129"/>
-      <c r="G67" s="129"/>
-      <c r="H67" s="129"/>
+      <c r="D67" s="147"/>
+      <c r="E67" s="147"/>
+      <c r="F67" s="147"/>
+      <c r="G67" s="147"/>
+      <c r="H67" s="147"/>
     </row>
     <row r="68" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="69" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -4835,15 +4804,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C2:F4"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="G9:G11"/>
     <mergeCell ref="C67:H67"/>
     <mergeCell ref="F63:H63"/>
     <mergeCell ref="A54:B54"/>
@@ -4856,6 +4816,15 @@
     <mergeCell ref="F54:G54"/>
     <mergeCell ref="F55:G55"/>
     <mergeCell ref="F61:G61"/>
+    <mergeCell ref="C2:F4"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="G9:G11"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="57" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4888,99 +4857,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="158"/>
-      <c r="B1" s="159"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="149" t="s">
+      <c r="A1" s="165"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="156" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="150"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="102" t="s">
+      <c r="E1" s="157"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="126" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="102"/>
+      <c r="H1" s="126"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="161"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="102" t="s">
+      <c r="A2" s="168"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="102"/>
+      <c r="H2" s="126"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="163"/>
-      <c r="B3" s="164"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="102" t="s">
+      <c r="A3" s="170"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="102"/>
+      <c r="H3" s="126"/>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="168" t="s">
+      <c r="A4" s="175" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="168"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
+      <c r="B4" s="175"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108" t="s">
+      <c r="C5" s="105"/>
+      <c r="D5" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="108" t="s">
+      <c r="E5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="108" t="s">
+      <c r="F5" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108" t="s">
+      <c r="G5" s="105"/>
+      <c r="H5" s="105" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="108"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="108"/>
+      <c r="H6" s="105"/>
     </row>
     <row r="7" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="66">
         <v>1</v>
       </c>
-      <c r="B7" s="171" t="s">
+      <c r="B7" s="154" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="172"/>
+      <c r="C7" s="155"/>
       <c r="D7" s="75" t="s">
         <v>121</v>
       </c>
@@ -5006,36 +4975,36 @@
       <c r="H8" s="67"/>
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="170" t="s">
+      <c r="A9" s="153" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="170"/>
-      <c r="C9" s="170" t="s">
+      <c r="B9" s="153"/>
+      <c r="C9" s="153" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="170"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170" t="s">
+      <c r="D9" s="153"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="170"/>
+      <c r="H9" s="153"/>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="169"/>
-      <c r="C10" s="169" t="s">
+      <c r="B10" s="176"/>
+      <c r="C10" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169" t="s">
+      <c r="D10" s="176"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="169"/>
+      <c r="H10" s="176"/>
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
@@ -5048,34 +5017,27 @@
       <c r="H11" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G14" s="166"/>
-      <c r="H14" s="166"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="167" t="s">
+      <c r="A15" s="174" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="167"/>
-      <c r="C15" s="167" t="s">
+      <c r="B15" s="174"/>
+      <c r="C15" s="174" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167" t="s">
+      <c r="D15" s="174"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="167"/>
+      <c r="H15" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="D1:F3"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="G14:H14"/>
@@ -5092,6 +5054,13 @@
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0.31496062992125984" header="0.27559055118110237" footer="0.23622047244094491"/>
@@ -5121,42 +5090,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="176" t="s">
+      <c r="A2" s="119"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="177"/>
-      <c r="E2" s="178"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="182"/>
       <c r="F2" s="32" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="181"/>
+      <c r="A3" s="119"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="185"/>
       <c r="F3" s="32" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="182"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="184"/>
+      <c r="A4" s="119"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="188"/>
       <c r="F4" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="179" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="175"/>
+      <c r="B5" s="179"/>
       <c r="F5" s="22" t="s">
         <v>45</v>
       </c>
@@ -5395,32 +5364,32 @@
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
-      <c r="E37" s="185" t="s">
+      <c r="E37" s="189" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="185"/>
+      <c r="F37" s="189"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="173" t="s">
+      <c r="B38" s="177" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="173"/>
+      <c r="C38" s="177"/>
       <c r="D38" s="12"/>
-      <c r="E38" s="173" t="s">
+      <c r="E38" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="173"/>
+      <c r="F38" s="177"/>
     </row>
     <row r="39" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="174" t="s">
+      <c r="B39" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="174"/>
+      <c r="C39" s="178"/>
       <c r="D39" s="17"/>
-      <c r="E39" s="174" t="s">
+      <c r="E39" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="174"/>
+      <c r="F39" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5465,78 +5434,78 @@
   <sheetData>
     <row r="1" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="190" t="s">
+      <c r="A2" s="119"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="202" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="191" t="s">
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="203" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="192"/>
-      <c r="L2" s="193"/>
+      <c r="K2" s="204"/>
+      <c r="L2" s="205"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="191" t="s">
+      <c r="A3" s="119"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="203" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="192"/>
-      <c r="L3" s="193"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="205"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="190"/>
-      <c r="H4" s="190"/>
-      <c r="I4" s="190"/>
-      <c r="J4" s="191" t="s">
+      <c r="A4" s="119"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="203" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="192"/>
-      <c r="L4" s="193"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="205"/>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="189" t="s">
+      <c r="A5" s="201" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="189" t="s">
+      <c r="B5" s="201"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="189"/>
-      <c r="H5" s="189"/>
-      <c r="I5" s="189"/>
-      <c r="J5" s="189"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="201"/>
+      <c r="J5" s="201"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="188"/>
-      <c r="F6" s="188"/>
-      <c r="G6" s="188"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="K6" s="27"/>
@@ -5628,58 +5597,58 @@
     </row>
     <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="201" t="s">
+      <c r="A21" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="187" t="s">
+      <c r="B21" s="199" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="187" t="s">
+      <c r="C21" s="199" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="187" t="s">
+      <c r="D21" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="186" t="s">
+      <c r="E21" s="194" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="186" t="s">
+      <c r="F21" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="186"/>
-      <c r="H21" s="186" t="s">
+      <c r="G21" s="194"/>
+      <c r="H21" s="194" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="186" t="s">
+      <c r="I21" s="194" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="186" t="s">
+      <c r="J21" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="196" t="s">
+      <c r="K21" s="192" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="194" t="s">
+      <c r="L21" s="190" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="201"/>
-      <c r="B22" s="187"/>
-      <c r="C22" s="187"/>
-      <c r="D22" s="187"/>
-      <c r="E22" s="186"/>
+      <c r="A22" s="198"/>
+      <c r="B22" s="199"/>
+      <c r="C22" s="199"/>
+      <c r="D22" s="199"/>
+      <c r="E22" s="194"/>
       <c r="F22" s="37" t="s">
         <v>39</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="186"/>
-      <c r="I22" s="186"/>
-      <c r="J22" s="186"/>
-      <c r="K22" s="197"/>
-      <c r="L22" s="195"/>
+      <c r="H22" s="194"/>
+      <c r="I22" s="194"/>
+      <c r="J22" s="194"/>
+      <c r="K22" s="193"/>
+      <c r="L22" s="191"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
@@ -5724,45 +5693,45 @@
       <c r="L25" s="20"/>
     </row>
     <row r="26" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="200" t="s">
+      <c r="D26" s="197" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="200"/>
-      <c r="F26" s="200"/>
-      <c r="G26" s="200"/>
+      <c r="E26" s="197"/>
+      <c r="F26" s="197"/>
+      <c r="G26" s="197"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="173" t="s">
+      <c r="A27" s="177" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="173"/>
-      <c r="C27" s="173"/>
-      <c r="D27" s="173"/>
-      <c r="E27" s="173" t="s">
+      <c r="B27" s="177"/>
+      <c r="C27" s="177"/>
+      <c r="D27" s="177"/>
+      <c r="E27" s="177" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="173"/>
-      <c r="H27" s="173" t="s">
+      <c r="F27" s="177"/>
+      <c r="H27" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="173"/>
-      <c r="J27" s="173"/>
-      <c r="K27" s="173"/>
+      <c r="I27" s="177"/>
+      <c r="J27" s="177"/>
+      <c r="K27" s="177"/>
     </row>
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="174"/>
-      <c r="D28" s="174"/>
-      <c r="E28" s="174" t="s">
+      <c r="C28" s="178"/>
+      <c r="D28" s="178"/>
+      <c r="E28" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="174"/>
-      <c r="I28" s="174" t="s">
+      <c r="F28" s="178"/>
+      <c r="I28" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="174"/>
+      <c r="J28" s="178"/>
       <c r="K28" s="29"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5797,74 +5766,74 @@
     </row>
     <row r="32" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30"/>
-      <c r="B32" s="199" t="s">
+      <c r="B32" s="196" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="199"/>
-      <c r="D32" s="199"/>
-      <c r="E32" s="199"/>
-      <c r="F32" s="199"/>
-      <c r="G32" s="199"/>
-      <c r="H32" s="199"/>
-      <c r="I32" s="199"/>
-      <c r="J32" s="199"/>
-      <c r="K32" s="199"/>
+      <c r="C32" s="196"/>
+      <c r="D32" s="196"/>
+      <c r="E32" s="196"/>
+      <c r="F32" s="196"/>
+      <c r="G32" s="196"/>
+      <c r="H32" s="196"/>
+      <c r="I32" s="196"/>
+      <c r="J32" s="196"/>
+      <c r="K32" s="196"/>
     </row>
     <row r="33" spans="1:11" s="33" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="199" t="s">
+      <c r="A33" s="196" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="199"/>
-      <c r="C33" s="199"/>
-      <c r="D33" s="199"/>
-      <c r="E33" s="199"/>
-      <c r="F33" s="199"/>
-      <c r="G33" s="199"/>
-      <c r="H33" s="199"/>
-      <c r="I33" s="199"/>
-      <c r="J33" s="199"/>
-      <c r="K33" s="199"/>
+      <c r="B33" s="196"/>
+      <c r="C33" s="196"/>
+      <c r="D33" s="196"/>
+      <c r="E33" s="196"/>
+      <c r="F33" s="196"/>
+      <c r="G33" s="196"/>
+      <c r="H33" s="196"/>
+      <c r="I33" s="196"/>
+      <c r="J33" s="196"/>
+      <c r="K33" s="196"/>
     </row>
     <row r="34" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="198" t="s">
+      <c r="A34" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="198"/>
-      <c r="C34" s="198"/>
-      <c r="D34" s="198"/>
-      <c r="E34" s="198"/>
-      <c r="F34" s="198"/>
-      <c r="G34" s="198"/>
-      <c r="H34" s="198"/>
-      <c r="I34" s="198"/>
-      <c r="J34" s="198"/>
-      <c r="K34" s="198"/>
+      <c r="B34" s="195"/>
+      <c r="C34" s="195"/>
+      <c r="D34" s="195"/>
+      <c r="E34" s="195"/>
+      <c r="F34" s="195"/>
+      <c r="G34" s="195"/>
+      <c r="H34" s="195"/>
+      <c r="I34" s="195"/>
+      <c r="J34" s="195"/>
+      <c r="K34" s="195"/>
     </row>
     <row r="35" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="198" t="s">
+      <c r="A35" s="195" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="198"/>
-      <c r="C35" s="198"/>
-      <c r="D35" s="198"/>
-      <c r="E35" s="198"/>
-      <c r="F35" s="198"/>
-      <c r="G35" s="198"/>
+      <c r="B35" s="195"/>
+      <c r="C35" s="195"/>
+      <c r="D35" s="195"/>
+      <c r="E35" s="195"/>
+      <c r="F35" s="195"/>
+      <c r="G35" s="195"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="198" t="s">
+      <c r="A36" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="198"/>
-      <c r="C36" s="198"/>
-      <c r="D36" s="198"/>
-      <c r="E36" s="198"/>
-      <c r="F36" s="198"/>
-      <c r="G36" s="198"/>
+      <c r="B36" s="195"/>
+      <c r="C36" s="195"/>
+      <c r="D36" s="195"/>
+      <c r="E36" s="195"/>
+      <c r="F36" s="195"/>
+      <c r="G36" s="195"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -5872,6 +5841,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A2:B4"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="I21:I22"/>
@@ -5888,22 +5873,6 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.16" top="0.27" bottom="0.22" header="0.22" footer="0.16"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -5936,62 +5905,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="214" t="s">
+      <c r="A2" s="119"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="211" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="191" t="s">
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="203" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="193"/>
+      <c r="K2" s="205"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
-      <c r="J3" s="191" t="s">
+      <c r="A3" s="119"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="203" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="193"/>
+      <c r="K3" s="205"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="215"/>
-      <c r="J4" s="191" t="s">
+      <c r="A4" s="119"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="212"/>
+      <c r="G4" s="212"/>
+      <c r="H4" s="212"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="203" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="193"/>
+      <c r="K4" s="205"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="189" t="s">
+      <c r="A5" s="201" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="209"/>
-      <c r="D5" s="209"/>
-      <c r="E5" s="209"/>
-      <c r="F5" s="209"/>
-      <c r="G5" s="209"/>
+      <c r="B5" s="201"/>
+      <c r="C5" s="206"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -6005,12 +5974,12 @@
       <c r="E6" s="12"/>
       <c r="F6" s="17"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="216" t="s">
+      <c r="H6" s="213" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="216"/>
-      <c r="J6" s="216"/>
-      <c r="K6" s="216"/>
+      <c r="I6" s="213"/>
+      <c r="J6" s="213"/>
+      <c r="K6" s="213"/>
     </row>
     <row r="7" spans="1:14" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
@@ -6040,10 +6009,10 @@
       <c r="I7" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="210" t="s">
+      <c r="J7" s="207" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="211"/>
+      <c r="K7" s="208"/>
     </row>
     <row r="8" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
@@ -6057,8 +6026,8 @@
       <c r="G8" s="44"/>
       <c r="H8" s="43"/>
       <c r="I8" s="43"/>
-      <c r="J8" s="203"/>
-      <c r="K8" s="204"/>
+      <c r="J8" s="215"/>
+      <c r="K8" s="216"/>
     </row>
     <row r="9" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
@@ -6072,8 +6041,8 @@
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
-      <c r="J9" s="203"/>
-      <c r="K9" s="204"/>
+      <c r="J9" s="215"/>
+      <c r="K9" s="216"/>
     </row>
     <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
@@ -6087,8 +6056,8 @@
       <c r="G10" s="44"/>
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
-      <c r="J10" s="205"/>
-      <c r="K10" s="206"/>
+      <c r="J10" s="217"/>
+      <c r="K10" s="218"/>
     </row>
     <row r="11" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
@@ -6102,8 +6071,8 @@
       <c r="G11" s="43"/>
       <c r="H11" s="43"/>
       <c r="I11" s="43"/>
-      <c r="J11" s="205"/>
-      <c r="K11" s="206"/>
+      <c r="J11" s="217"/>
+      <c r="K11" s="218"/>
     </row>
     <row r="12" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
@@ -6117,8 +6086,8 @@
       <c r="G12" s="43"/>
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
-      <c r="J12" s="205"/>
-      <c r="K12" s="206"/>
+      <c r="J12" s="217"/>
+      <c r="K12" s="218"/>
     </row>
     <row r="13" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
@@ -6132,14 +6101,14 @@
       <c r="G13" s="43"/>
       <c r="H13" s="43"/>
       <c r="I13" s="43"/>
-      <c r="J13" s="205"/>
-      <c r="K13" s="206"/>
+      <c r="J13" s="217"/>
+      <c r="K13" s="218"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="212" t="s">
+      <c r="A14" s="209" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="213"/>
+      <c r="B14" s="210"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
@@ -6147,44 +6116,35 @@
       <c r="G14" s="46"/>
       <c r="H14" s="47"/>
       <c r="I14" s="48"/>
-      <c r="J14" s="207"/>
-      <c r="K14" s="208"/>
+      <c r="J14" s="219"/>
+      <c r="K14" s="220"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="202" t="s">
+      <c r="A16" s="214" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="202"/>
-      <c r="C16" s="202"/>
+      <c r="B16" s="214"/>
+      <c r="C16" s="214"/>
       <c r="D16" s="49"/>
-      <c r="E16" s="202" t="s">
+      <c r="E16" s="214" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="202"/>
-      <c r="G16" s="202" t="s">
+      <c r="F16" s="214"/>
+      <c r="G16" s="214" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="202"/>
-      <c r="I16" s="202" t="s">
+      <c r="H16" s="214"/>
+      <c r="I16" s="214" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="202"/>
-      <c r="K16" s="202"/>
+      <c r="J16" s="214"/>
+      <c r="K16" s="214"/>
       <c r="M16" s="50"/>
       <c r="N16" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H6:K6"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
@@ -6196,6 +6156,15 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
@@ -6235,48 +6204,48 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="96" t="s">
+      <c r="A2" s="119"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="191" t="s">
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="203" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="193"/>
+      <c r="J2" s="205"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="191" t="s">
+      <c r="A3" s="119"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="203" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="193"/>
+      <c r="J3" s="205"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="219"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="191" t="s">
+      <c r="A4" s="119"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="227"/>
+      <c r="F4" s="227"/>
+      <c r="G4" s="227"/>
+      <c r="H4" s="228"/>
+      <c r="I4" s="203" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="193"/>
+      <c r="J4" s="205"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -6322,11 +6291,11 @@
       <c r="A8" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="217" t="s">
+      <c r="B8" s="224" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="217"/>
-      <c r="D8" s="217"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
       <c r="E8" s="54" t="s">
         <v>2</v>
       </c>
@@ -6336,174 +6305,174 @@
       <c r="G8" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="217" t="s">
+      <c r="H8" s="224" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="217"/>
-      <c r="J8" s="218"/>
+      <c r="I8" s="224"/>
+      <c r="J8" s="225"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55">
         <v>1</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="52"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="222"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="221"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55">
         <f t="shared" ref="A10:A18" si="0">+A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="52"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="222"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="221"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="55">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="52"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="222"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="221"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="52"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="222"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="221"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="52"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="222"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="221"/>
     </row>
     <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="55">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="52"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="222"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="221"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="55">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="52"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="222"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="221"/>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="52"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="222"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="221"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="55">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="52"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="222"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="221"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="55">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="52"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="222"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="221"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56">
         <v>11</v>
       </c>
-      <c r="B19" s="223"/>
-      <c r="C19" s="223"/>
-      <c r="D19" s="223"/>
+      <c r="B19" s="222"/>
+      <c r="C19" s="222"/>
+      <c r="D19" s="222"/>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
       <c r="G19" s="58"/>
-      <c r="H19" s="223"/>
-      <c r="I19" s="223"/>
-      <c r="J19" s="224"/>
+      <c r="H19" s="222"/>
+      <c r="I19" s="222"/>
+      <c r="J19" s="223"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -6518,42 +6487,42 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="116" t="s">
+      <c r="A21" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="117"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117" t="s">
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117" t="s">
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="118"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="109"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="119"/>
-      <c r="B22" s="120"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="121"/>
+      <c r="A22" s="98"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="100"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -6563,9 +6532,9 @@
       <c r="A24" s="7"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -6575,9 +6544,9 @@
       <c r="A25" s="7"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -6587,9 +6556,9 @@
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -6597,6 +6566,38 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:H4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:J21"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
@@ -6604,38 +6605,6 @@
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:H4"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Xuất Kho 2023/Thang10/XKSX_LK_1000E-4G_261023.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Xuất Kho 2023/Thang10/XKSX_LK_1000E-4G_261023.xlsx
@@ -1475,69 +1475,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1565,16 +1502,97 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1622,33 +1640,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1712,6 +1703,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1751,6 +1751,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1761,9 +1785,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1778,26 +1799,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1823,26 +1844,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1851,21 +1866,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1908,7 +1908,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1960,7 +1960,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2009,7 +2009,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2061,7 +2061,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2110,7 +2110,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD526011-714C-4DBD-B6A8-673BE0B9A83D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD526011-714C-4DBD-B6A8-673BE0B9A83D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2162,7 +2162,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BDEEE3-9980-4D12-9AEC-98030418D8FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7BDEEE3-9980-4D12-9AEC-98030418D8FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2260,7 +2260,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2309,7 +2309,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2358,7 +2358,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2402,7 +2402,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2476,7 +2476,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2817,57 +2817,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="126" t="s">
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="126"/>
+      <c r="M2" s="105"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="119"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="126" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="126"/>
+      <c r="M3" s="105"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="119"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="126" t="s">
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="126"/>
+      <c r="M4" s="105"/>
     </row>
     <row r="5" spans="1:13" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
@@ -2894,29 +2894,29 @@
       <c r="A8" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
       <c r="E8" s="70" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="110" t="s">
+      <c r="G8" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110" t="s">
+      <c r="H8" s="107"/>
+      <c r="I8" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110" t="s">
+      <c r="J8" s="107"/>
+      <c r="K8" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="110"/>
+      <c r="L8" s="107"/>
       <c r="M8" s="70" t="s">
         <v>4</v>
       </c>
@@ -2925,86 +2925,86 @@
       <c r="A9" s="71">
         <v>1</v>
       </c>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="115" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="118"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="117"/>
       <c r="E9" s="69" t="s">
         <v>93</v>
       </c>
       <c r="F9" s="69">
         <v>985</v>
       </c>
-      <c r="G9" s="114"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="106" t="s">
+      <c r="G9" s="113"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="112" t="s">
         <v>106</v>
       </c>
-      <c r="L9" s="106"/>
+      <c r="L9" s="112"/>
       <c r="M9" s="70"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="71">
         <v>2</v>
       </c>
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="118"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="117"/>
       <c r="E10" s="69" t="s">
         <v>93</v>
       </c>
       <c r="F10" s="69">
         <v>985</v>
       </c>
-      <c r="G10" s="114"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="106" t="s">
+      <c r="G10" s="113"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="112" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="106"/>
+      <c r="L10" s="112"/>
       <c r="M10" s="70"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="71">
         <v>3</v>
       </c>
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="112"/>
-      <c r="D11" s="113"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="110"/>
       <c r="E11" s="69" t="s">
         <v>93</v>
       </c>
       <c r="F11" s="69">
         <v>985</v>
       </c>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="106" t="s">
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="112" t="s">
         <v>106</v>
       </c>
-      <c r="L11" s="106"/>
+      <c r="L11" s="112"/>
       <c r="M11" s="68"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="71">
         <v>4</v>
       </c>
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
       <c r="E12" s="69" t="s">
         <v>93</v>
       </c>
@@ -3012,58 +3012,58 @@
         <f>985*2</f>
         <v>1970</v>
       </c>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="106" t="s">
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="112" t="s">
         <v>106</v>
       </c>
-      <c r="L12" s="106"/>
+      <c r="L12" s="112"/>
       <c r="M12" s="68"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="107" t="s">
+      <c r="A14" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="107" t="s">
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="107" t="s">
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="109"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="121"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="98" t="s">
+      <c r="A15" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="98" t="s">
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="98" t="s">
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="100"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="124"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
@@ -3126,25 +3126,25 @@
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="101" t="s">
+      <c r="A20" s="125" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="101" t="s">
+      <c r="B20" s="126"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="125" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="101" t="s">
+      <c r="G20" s="126"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="125" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="102"/>
-      <c r="L20" s="102"/>
-      <c r="M20" s="103"/>
+      <c r="K20" s="126"/>
+      <c r="L20" s="126"/>
+      <c r="M20" s="127"/>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3157,12 +3157,19 @@
     <row r="29" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:K3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
@@ -3179,19 +3186,12 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:K3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.6692913385826772" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
@@ -3225,51 +3225,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="126" t="s">
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="126"/>
+      <c r="K2" s="105"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="119"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="126" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="126"/>
+      <c r="K3" s="105"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="119"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="126" t="s">
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="126"/>
+      <c r="K4" s="105"/>
     </row>
     <row r="5" spans="1:11" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
@@ -3296,23 +3296,23 @@
       <c r="A8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
       <c r="E8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="114" t="s">
+      <c r="F8" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="115"/>
-      <c r="H8" s="114" t="s">
+      <c r="G8" s="114"/>
+      <c r="H8" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="128"/>
-      <c r="J8" s="115"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="114"/>
       <c r="K8" s="24" t="s">
         <v>4</v>
       </c>
@@ -3321,46 +3321,46 @@
       <c r="A9" s="73">
         <v>1</v>
       </c>
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="128" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="130"/>
-      <c r="D9" s="131"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="130"/>
       <c r="E9" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="129">
+      <c r="F9" s="128">
         <v>6</v>
       </c>
-      <c r="G9" s="131"/>
-      <c r="H9" s="129" t="s">
+      <c r="G9" s="130"/>
+      <c r="H9" s="128" t="s">
         <v>113</v>
       </c>
-      <c r="I9" s="130"/>
-      <c r="J9" s="131"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="130"/>
       <c r="K9" s="73"/>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="73">
         <v>2</v>
       </c>
-      <c r="B10" s="129" t="s">
+      <c r="B10" s="128" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="130"/>
-      <c r="D10" s="131"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="130"/>
       <c r="E10" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="129">
+      <c r="F10" s="128">
         <v>4</v>
       </c>
-      <c r="G10" s="131"/>
-      <c r="H10" s="129" t="s">
+      <c r="G10" s="130"/>
+      <c r="H10" s="128" t="s">
         <v>113</v>
       </c>
-      <c r="I10" s="130"/>
-      <c r="J10" s="131"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="130"/>
       <c r="K10" s="73" t="s">
         <v>117</v>
       </c>
@@ -3369,65 +3369,65 @@
       <c r="A11" s="73">
         <v>3</v>
       </c>
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="128" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="130"/>
-      <c r="D11" s="131"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="130"/>
       <c r="E11" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="129">
+      <c r="F11" s="128">
         <v>2</v>
       </c>
-      <c r="G11" s="131"/>
-      <c r="H11" s="129" t="s">
+      <c r="G11" s="130"/>
+      <c r="H11" s="128" t="s">
         <v>114</v>
       </c>
-      <c r="I11" s="130"/>
-      <c r="J11" s="131"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="130"/>
       <c r="K11" s="73" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="107" t="s">
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="109"/>
-      <c r="H13" s="107" t="s">
+      <c r="G13" s="121"/>
+      <c r="H13" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="109"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="121"/>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="98" t="s">
+      <c r="A14" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="98" t="s">
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="100"/>
-      <c r="H14" s="98" t="s">
+      <c r="G14" s="124"/>
+      <c r="H14" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="100"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="124"/>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
@@ -3482,23 +3482,23 @@
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="125" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="102"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="101" t="s">
+      <c r="B19" s="126"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="125" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="103"/>
-      <c r="H19" s="101" t="s">
+      <c r="G19" s="127"/>
+      <c r="H19" s="125" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="102"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="103"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="126"/>
+      <c r="K19" s="127"/>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3511,6 +3511,24 @@
     <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D2:I3"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="B9:D9"/>
@@ -3520,24 +3538,6 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D2:I3"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.6692913385826772" bottom="0" header="0" footer="0"/>
@@ -3551,8 +3551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3570,42 +3570,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="138"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="132" t="s">
+      <c r="A2" s="144"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="138" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="140" t="s">
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="146" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="140"/>
+      <c r="H2" s="146"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="138"/>
-      <c r="B3" s="138"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="140" t="s">
+      <c r="A3" s="144"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="146" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="140"/>
+      <c r="H3" s="146"/>
     </row>
     <row r="4" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="138"/>
-      <c r="B4" s="138"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="140" t="s">
+      <c r="A4" s="144"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="140"/>
+      <c r="H4" s="146"/>
     </row>
     <row r="5" spans="1:19" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="85" t="s">
@@ -3629,11 +3629,11 @@
         <v>124</v>
       </c>
       <c r="E6" s="86"/>
-      <c r="F6" s="141" t="s">
+      <c r="F6" s="147" t="s">
         <v>171</v>
       </c>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
     </row>
     <row r="7" spans="1:19" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="85" t="s">
@@ -3693,7 +3693,7 @@
       <c r="F9" s="92">
         <v>10000</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="150" t="s">
         <v>173</v>
       </c>
       <c r="H9" s="89"/>
@@ -3718,7 +3718,7 @@
       <c r="F10" s="92">
         <v>1000</v>
       </c>
-      <c r="G10" s="145"/>
+      <c r="G10" s="151"/>
       <c r="H10" s="89"/>
     </row>
     <row r="11" spans="1:19" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -3741,7 +3741,7 @@
       <c r="F11" s="92">
         <v>4000</v>
       </c>
-      <c r="G11" s="146"/>
+      <c r="G11" s="152"/>
       <c r="H11" s="87"/>
       <c r="S11" s="2" t="s">
         <v>141</v>
@@ -4590,10 +4590,10 @@
       </c>
       <c r="E48" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F48" s="92">
-        <v>1000</v>
+        <v>1013</v>
       </c>
       <c r="G48" s="93"/>
       <c r="H48" s="87"/>
@@ -4646,12 +4646,12 @@
     </row>
     <row r="51" spans="1:8" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="83"/>
-      <c r="B51" s="142"/>
-      <c r="C51" s="142"/>
-      <c r="D51" s="143"/>
-      <c r="E51" s="143"/>
-      <c r="F51" s="142"/>
-      <c r="G51" s="142"/>
+      <c r="B51" s="148"/>
+      <c r="C51" s="148"/>
+      <c r="D51" s="149"/>
+      <c r="E51" s="149"/>
+      <c r="F51" s="148"/>
+      <c r="G51" s="148"/>
       <c r="H51" s="74"/>
     </row>
     <row r="52" spans="1:8" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4666,8 +4666,8 @@
     </row>
     <row r="53" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A53" s="60"/>
-      <c r="B53" s="139"/>
-      <c r="C53" s="139"/>
+      <c r="B53" s="145"/>
+      <c r="C53" s="145"/>
       <c r="D53" s="60"/>
       <c r="E53" s="60"/>
       <c r="F53" s="60"/>
@@ -4675,37 +4675,37 @@
       <c r="H53" s="60"/>
     </row>
     <row r="54" spans="1:8" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="149" t="s">
+      <c r="A54" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="B54" s="149"/>
-      <c r="C54" s="149" t="s">
+      <c r="B54" s="134"/>
+      <c r="C54" s="134" t="s">
         <v>145</v>
       </c>
-      <c r="D54" s="149"/>
+      <c r="D54" s="134"/>
       <c r="E54" s="81"/>
-      <c r="F54" s="151" t="s">
+      <c r="F54" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="G54" s="151"/>
+      <c r="G54" s="136"/>
       <c r="H54" s="78" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="150" t="s">
+      <c r="A55" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="150"/>
-      <c r="C55" s="150" t="s">
+      <c r="B55" s="135"/>
+      <c r="C55" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="150"/>
+      <c r="D55" s="135"/>
       <c r="E55" s="82"/>
-      <c r="F55" s="150" t="s">
+      <c r="F55" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="G55" s="150"/>
+      <c r="G55" s="135"/>
       <c r="H55" s="77" t="s">
         <v>6</v>
       </c>
@@ -4745,8 +4745,8 @@
       <c r="D59" s="72"/>
       <c r="E59" s="82"/>
       <c r="F59" s="63"/>
-      <c r="G59" s="150"/>
-      <c r="H59" s="150"/>
+      <c r="G59" s="135"/>
+      <c r="H59" s="135"/>
     </row>
     <row r="60" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A60" s="61"/>
@@ -4759,41 +4759,41 @@
       <c r="H60" s="61"/>
     </row>
     <row r="61" spans="1:8" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="150" t="s">
+      <c r="A61" s="135" t="s">
         <v>88</v>
       </c>
-      <c r="B61" s="150"/>
-      <c r="C61" s="150" t="s">
+      <c r="B61" s="135"/>
+      <c r="C61" s="135" t="s">
         <v>144</v>
       </c>
-      <c r="D61" s="150"/>
+      <c r="D61" s="135"/>
       <c r="E61" s="82"/>
-      <c r="F61" s="152" t="s">
+      <c r="F61" s="137" t="s">
         <v>89</v>
       </c>
-      <c r="G61" s="152"/>
+      <c r="G61" s="137"/>
       <c r="H61" s="77" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F63" s="148"/>
-      <c r="G63" s="148"/>
-      <c r="H63" s="148"/>
+      <c r="F63" s="133"/>
+      <c r="G63" s="133"/>
+      <c r="H63" s="133"/>
     </row>
     <row r="64" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="65" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="66" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="3:8" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="C67" s="147" t="s">
+      <c r="C67" s="132" t="s">
         <v>109</v>
       </c>
-      <c r="D67" s="147"/>
-      <c r="E67" s="147"/>
-      <c r="F67" s="147"/>
-      <c r="G67" s="147"/>
-      <c r="H67" s="147"/>
+      <c r="D67" s="132"/>
+      <c r="E67" s="132"/>
+      <c r="F67" s="132"/>
+      <c r="G67" s="132"/>
+      <c r="H67" s="132"/>
     </row>
     <row r="68" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="69" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -4804,6 +4804,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C2:F4"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="G9:G11"/>
     <mergeCell ref="C67:H67"/>
     <mergeCell ref="F63:H63"/>
     <mergeCell ref="A54:B54"/>
@@ -4816,15 +4825,6 @@
     <mergeCell ref="F54:G54"/>
     <mergeCell ref="F55:G55"/>
     <mergeCell ref="F61:G61"/>
-    <mergeCell ref="C2:F4"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="G9:G11"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="57" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4857,99 +4857,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="165"/>
-      <c r="B1" s="166"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="156" t="s">
+      <c r="A1" s="162"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="153" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="157"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="126" t="s">
+      <c r="E1" s="154"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="126"/>
+      <c r="H1" s="105"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="168"/>
-      <c r="B2" s="139"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="126" t="s">
+      <c r="A2" s="165"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="126"/>
+      <c r="H2" s="105"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="170"/>
-      <c r="B3" s="171"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="126" t="s">
+      <c r="A3" s="167"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="126"/>
+      <c r="H3" s="105"/>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="175" t="s">
+      <c r="A4" s="172" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="172"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105" t="s">
+      <c r="C5" s="111"/>
+      <c r="D5" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="105" t="s">
+      <c r="E5" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105" t="s">
+      <c r="G5" s="111"/>
+      <c r="H5" s="111" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="105"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
+      <c r="A6" s="111"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="105"/>
+      <c r="H6" s="111"/>
     </row>
     <row r="7" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="66">
         <v>1</v>
       </c>
-      <c r="B7" s="154" t="s">
+      <c r="B7" s="175" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="155"/>
+      <c r="C7" s="176"/>
       <c r="D7" s="75" t="s">
         <v>121</v>
       </c>
@@ -4975,36 +4975,36 @@
       <c r="H8" s="67"/>
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="153" t="s">
+      <c r="A9" s="174" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="153"/>
-      <c r="C9" s="153" t="s">
+      <c r="B9" s="174"/>
+      <c r="C9" s="174" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153" t="s">
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
+      <c r="G9" s="174" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="153"/>
+      <c r="H9" s="174"/>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="176" t="s">
+      <c r="A10" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="176"/>
-      <c r="C10" s="176" t="s">
+      <c r="B10" s="173"/>
+      <c r="C10" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="176"/>
-      <c r="E10" s="176"/>
-      <c r="F10" s="176"/>
-      <c r="G10" s="176" t="s">
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="176"/>
+      <c r="H10" s="173"/>
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
@@ -5017,27 +5017,34 @@
       <c r="H11" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G14" s="173"/>
-      <c r="H14" s="173"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="174" t="s">
+      <c r="A15" s="171" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="174"/>
-      <c r="C15" s="174" t="s">
+      <c r="B15" s="171"/>
+      <c r="C15" s="171" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="174"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="174"/>
-      <c r="G15" s="174" t="s">
+      <c r="D15" s="171"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="171" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="174"/>
+      <c r="H15" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="D1:F3"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="G14:H14"/>
@@ -5054,13 +5061,6 @@
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0.31496062992125984" header="0.27559055118110237" footer="0.23622047244094491"/>
@@ -5090,8 +5090,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
       <c r="C2" s="180" t="s">
         <v>15</v>
       </c>
@@ -5102,8 +5102,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="119"/>
-      <c r="B3" s="119"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
       <c r="C3" s="183"/>
       <c r="D3" s="184"/>
       <c r="E3" s="185"/>
@@ -5112,8 +5112,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="119"/>
-      <c r="B4" s="119"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
       <c r="C4" s="186"/>
       <c r="D4" s="187"/>
       <c r="E4" s="188"/>
@@ -5434,78 +5434,78 @@
   <sheetData>
     <row r="1" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="202" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="203" t="s">
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="195" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="204"/>
-      <c r="L2" s="205"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="197"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="119"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="203" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="195" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="204"/>
-      <c r="L3" s="205"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="197"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="119"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="203" t="s">
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="194"/>
+      <c r="J4" s="195" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="204"/>
-      <c r="L4" s="205"/>
+      <c r="K4" s="196"/>
+      <c r="L4" s="197"/>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="201" t="s">
+      <c r="A5" s="193" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="201"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201" t="s">
+      <c r="B5" s="193"/>
+      <c r="C5" s="193"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="201"/>
-      <c r="H5" s="201"/>
-      <c r="I5" s="201"/>
-      <c r="J5" s="201"/>
+      <c r="G5" s="193"/>
+      <c r="H5" s="193"/>
+      <c r="I5" s="193"/>
+      <c r="J5" s="193"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="200"/>
-      <c r="F6" s="200"/>
-      <c r="G6" s="200"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="192"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="K6" s="27"/>
@@ -5597,58 +5597,58 @@
     </row>
     <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="198" t="s">
+      <c r="A21" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="199" t="s">
+      <c r="B21" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="199" t="s">
+      <c r="C21" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="199" t="s">
+      <c r="D21" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="194" t="s">
+      <c r="E21" s="190" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="194" t="s">
+      <c r="F21" s="190" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="194"/>
-      <c r="H21" s="194" t="s">
+      <c r="G21" s="190"/>
+      <c r="H21" s="190" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="194" t="s">
+      <c r="I21" s="190" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="194" t="s">
+      <c r="J21" s="190" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="192" t="s">
+      <c r="K21" s="200" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="190" t="s">
+      <c r="L21" s="198" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="198"/>
-      <c r="B22" s="199"/>
-      <c r="C22" s="199"/>
-      <c r="D22" s="199"/>
-      <c r="E22" s="194"/>
+      <c r="A22" s="205"/>
+      <c r="B22" s="191"/>
+      <c r="C22" s="191"/>
+      <c r="D22" s="191"/>
+      <c r="E22" s="190"/>
       <c r="F22" s="37" t="s">
         <v>39</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="194"/>
-      <c r="I22" s="194"/>
-      <c r="J22" s="194"/>
-      <c r="K22" s="193"/>
-      <c r="L22" s="191"/>
+      <c r="H22" s="190"/>
+      <c r="I22" s="190"/>
+      <c r="J22" s="190"/>
+      <c r="K22" s="201"/>
+      <c r="L22" s="199"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
@@ -5693,12 +5693,12 @@
       <c r="L25" s="20"/>
     </row>
     <row r="26" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="197" t="s">
+      <c r="D26" s="204" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="197"/>
-      <c r="F26" s="197"/>
-      <c r="G26" s="197"/>
+      <c r="E26" s="204"/>
+      <c r="F26" s="204"/>
+      <c r="G26" s="204"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="177" t="s">
@@ -5766,74 +5766,74 @@
     </row>
     <row r="32" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30"/>
-      <c r="B32" s="196" t="s">
+      <c r="B32" s="203" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="196"/>
-      <c r="D32" s="196"/>
-      <c r="E32" s="196"/>
-      <c r="F32" s="196"/>
-      <c r="G32" s="196"/>
-      <c r="H32" s="196"/>
-      <c r="I32" s="196"/>
-      <c r="J32" s="196"/>
-      <c r="K32" s="196"/>
+      <c r="C32" s="203"/>
+      <c r="D32" s="203"/>
+      <c r="E32" s="203"/>
+      <c r="F32" s="203"/>
+      <c r="G32" s="203"/>
+      <c r="H32" s="203"/>
+      <c r="I32" s="203"/>
+      <c r="J32" s="203"/>
+      <c r="K32" s="203"/>
     </row>
     <row r="33" spans="1:11" s="33" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="196" t="s">
+      <c r="A33" s="203" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="196"/>
-      <c r="C33" s="196"/>
-      <c r="D33" s="196"/>
-      <c r="E33" s="196"/>
-      <c r="F33" s="196"/>
-      <c r="G33" s="196"/>
-      <c r="H33" s="196"/>
-      <c r="I33" s="196"/>
-      <c r="J33" s="196"/>
-      <c r="K33" s="196"/>
+      <c r="B33" s="203"/>
+      <c r="C33" s="203"/>
+      <c r="D33" s="203"/>
+      <c r="E33" s="203"/>
+      <c r="F33" s="203"/>
+      <c r="G33" s="203"/>
+      <c r="H33" s="203"/>
+      <c r="I33" s="203"/>
+      <c r="J33" s="203"/>
+      <c r="K33" s="203"/>
     </row>
     <row r="34" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="195" t="s">
+      <c r="A34" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="195"/>
-      <c r="C34" s="195"/>
-      <c r="D34" s="195"/>
-      <c r="E34" s="195"/>
-      <c r="F34" s="195"/>
-      <c r="G34" s="195"/>
-      <c r="H34" s="195"/>
-      <c r="I34" s="195"/>
-      <c r="J34" s="195"/>
-      <c r="K34" s="195"/>
+      <c r="B34" s="202"/>
+      <c r="C34" s="202"/>
+      <c r="D34" s="202"/>
+      <c r="E34" s="202"/>
+      <c r="F34" s="202"/>
+      <c r="G34" s="202"/>
+      <c r="H34" s="202"/>
+      <c r="I34" s="202"/>
+      <c r="J34" s="202"/>
+      <c r="K34" s="202"/>
     </row>
     <row r="35" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="195" t="s">
+      <c r="A35" s="202" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="195"/>
-      <c r="C35" s="195"/>
-      <c r="D35" s="195"/>
-      <c r="E35" s="195"/>
-      <c r="F35" s="195"/>
-      <c r="G35" s="195"/>
+      <c r="B35" s="202"/>
+      <c r="C35" s="202"/>
+      <c r="D35" s="202"/>
+      <c r="E35" s="202"/>
+      <c r="F35" s="202"/>
+      <c r="G35" s="202"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="195" t="s">
+      <c r="A36" s="202" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="195"/>
-      <c r="C36" s="195"/>
-      <c r="D36" s="195"/>
-      <c r="E36" s="195"/>
-      <c r="F36" s="195"/>
-      <c r="G36" s="195"/>
+      <c r="B36" s="202"/>
+      <c r="C36" s="202"/>
+      <c r="D36" s="202"/>
+      <c r="E36" s="202"/>
+      <c r="F36" s="202"/>
+      <c r="G36" s="202"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -5841,22 +5841,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A2:B4"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="I21:I22"/>
@@ -5873,6 +5857,22 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.16" top="0.27" bottom="0.22" header="0.22" footer="0.16"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -5905,62 +5905,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="211" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="218" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212"/>
-      <c r="J2" s="203" t="s">
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="195" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="205"/>
+      <c r="K2" s="197"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="119"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="212"/>
-      <c r="I3" s="212"/>
-      <c r="J3" s="203" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="219"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="219"/>
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="219"/>
+      <c r="J3" s="195" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="205"/>
+      <c r="K3" s="197"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="212"/>
-      <c r="F4" s="212"/>
-      <c r="G4" s="212"/>
-      <c r="H4" s="212"/>
-      <c r="I4" s="212"/>
-      <c r="J4" s="203" t="s">
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="219"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="219"/>
+      <c r="G4" s="219"/>
+      <c r="H4" s="219"/>
+      <c r="I4" s="219"/>
+      <c r="J4" s="195" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="205"/>
+      <c r="K4" s="197"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="201" t="s">
+      <c r="A5" s="193" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="201"/>
-      <c r="C5" s="206"/>
-      <c r="D5" s="206"/>
-      <c r="E5" s="206"/>
-      <c r="F5" s="206"/>
-      <c r="G5" s="206"/>
+      <c r="B5" s="193"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -5974,12 +5974,12 @@
       <c r="E6" s="12"/>
       <c r="F6" s="17"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="213" t="s">
+      <c r="H6" s="220" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="213"/>
-      <c r="J6" s="213"/>
-      <c r="K6" s="213"/>
+      <c r="I6" s="220"/>
+      <c r="J6" s="220"/>
+      <c r="K6" s="220"/>
     </row>
     <row r="7" spans="1:14" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
@@ -6009,10 +6009,10 @@
       <c r="I7" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="207" t="s">
+      <c r="J7" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="208"/>
+      <c r="K7" s="215"/>
     </row>
     <row r="8" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
@@ -6026,8 +6026,8 @@
       <c r="G8" s="44"/>
       <c r="H8" s="43"/>
       <c r="I8" s="43"/>
-      <c r="J8" s="215"/>
-      <c r="K8" s="216"/>
+      <c r="J8" s="207"/>
+      <c r="K8" s="208"/>
     </row>
     <row r="9" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
@@ -6041,8 +6041,8 @@
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
-      <c r="J9" s="215"/>
-      <c r="K9" s="216"/>
+      <c r="J9" s="207"/>
+      <c r="K9" s="208"/>
     </row>
     <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
@@ -6056,8 +6056,8 @@
       <c r="G10" s="44"/>
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
-      <c r="J10" s="217"/>
-      <c r="K10" s="218"/>
+      <c r="J10" s="209"/>
+      <c r="K10" s="210"/>
     </row>
     <row r="11" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
@@ -6071,8 +6071,8 @@
       <c r="G11" s="43"/>
       <c r="H11" s="43"/>
       <c r="I11" s="43"/>
-      <c r="J11" s="217"/>
-      <c r="K11" s="218"/>
+      <c r="J11" s="209"/>
+      <c r="K11" s="210"/>
     </row>
     <row r="12" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
@@ -6086,8 +6086,8 @@
       <c r="G12" s="43"/>
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
-      <c r="J12" s="217"/>
-      <c r="K12" s="218"/>
+      <c r="J12" s="209"/>
+      <c r="K12" s="210"/>
     </row>
     <row r="13" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
@@ -6101,14 +6101,14 @@
       <c r="G13" s="43"/>
       <c r="H13" s="43"/>
       <c r="I13" s="43"/>
-      <c r="J13" s="217"/>
-      <c r="K13" s="218"/>
+      <c r="J13" s="209"/>
+      <c r="K13" s="210"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="209" t="s">
+      <c r="A14" s="216" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="210"/>
+      <c r="B14" s="217"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
@@ -6116,35 +6116,44 @@
       <c r="G14" s="46"/>
       <c r="H14" s="47"/>
       <c r="I14" s="48"/>
-      <c r="J14" s="219"/>
-      <c r="K14" s="220"/>
+      <c r="J14" s="211"/>
+      <c r="K14" s="212"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="214" t="s">
+      <c r="A16" s="206" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="214"/>
-      <c r="C16" s="214"/>
+      <c r="B16" s="206"/>
+      <c r="C16" s="206"/>
       <c r="D16" s="49"/>
-      <c r="E16" s="214" t="s">
+      <c r="E16" s="206" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="214"/>
-      <c r="G16" s="214" t="s">
+      <c r="F16" s="206"/>
+      <c r="G16" s="206" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="214"/>
-      <c r="I16" s="214" t="s">
+      <c r="H16" s="206"/>
+      <c r="I16" s="206" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="214"/>
-      <c r="K16" s="214"/>
+      <c r="J16" s="206"/>
+      <c r="K16" s="206"/>
       <c r="M16" s="50"/>
       <c r="N16" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H6:K6"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
@@ -6156,15 +6165,6 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
@@ -6204,48 +6204,48 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="203" t="s">
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="195" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="205"/>
+      <c r="J2" s="197"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="119"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="203" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="195" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="205"/>
+      <c r="J3" s="197"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="119"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="226"/>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="228"/>
-      <c r="I4" s="203" t="s">
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="223"/>
+      <c r="E4" s="224"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="225"/>
+      <c r="I4" s="195" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="205"/>
+      <c r="J4" s="197"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -6291,11 +6291,11 @@
       <c r="A8" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="224" t="s">
+      <c r="B8" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="224"/>
-      <c r="D8" s="224"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="221"/>
       <c r="E8" s="54" t="s">
         <v>2</v>
       </c>
@@ -6305,174 +6305,174 @@
       <c r="G8" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="224" t="s">
+      <c r="H8" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="224"/>
-      <c r="J8" s="225"/>
+      <c r="I8" s="221"/>
+      <c r="J8" s="222"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55">
         <v>1</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="52"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="221"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="226"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55">
         <f t="shared" ref="A10:A18" si="0">+A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="52"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="221"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="226"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="55">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="52"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="221"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="226"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="52"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="221"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="226"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="52"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="221"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="226"/>
     </row>
     <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="55">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="105"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="52"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="221"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="226"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="55">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="52"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="221"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="226"/>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="52"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="221"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="226"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="55">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="52"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="221"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="226"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="55">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="52"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="221"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="226"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56">
         <v>11</v>
       </c>
-      <c r="B19" s="222"/>
-      <c r="C19" s="222"/>
-      <c r="D19" s="222"/>
+      <c r="B19" s="227"/>
+      <c r="C19" s="227"/>
+      <c r="D19" s="227"/>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
       <c r="G19" s="58"/>
-      <c r="H19" s="222"/>
-      <c r="I19" s="222"/>
-      <c r="J19" s="223"/>
+      <c r="H19" s="227"/>
+      <c r="I19" s="227"/>
+      <c r="J19" s="228"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -6487,42 +6487,42 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="107" t="s">
+      <c r="A21" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108" t="s">
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108" t="s">
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="121"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="98"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="100"/>
+      <c r="A22" s="122"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="124"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -6532,9 +6532,9 @@
       <c r="A24" s="7"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -6544,9 +6544,9 @@
       <c r="A25" s="7"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -6556,9 +6556,9 @@
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -6566,6 +6566,38 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="A2:C4"/>
@@ -6573,38 +6605,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
